--- a/outputs/resultats_2025-07-23_14h15min40s.xlsx
+++ b/outputs/resultats_2025-07-23_14h15min40s.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Résultats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Résultats" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -538,7 +538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,6 +673,133 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hassan 2024 (FR)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-07-23 14:16:37</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12 août 2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Malaisie</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Plusieurs des options ci-dessus (milieu mixte)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Multicentrique</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>De janvier 2018 à décembre 2020, durée de 3 ans</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Étude observationnelle (sans intervention)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Rétrospective</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Comparer les résultats cliniques, spécifiquement les changements dans les niveaux d'hémoglobine A1c (HbA1c) et de glycémie à jeun (FBS), entre les patients atteints de diabète qui ont complété les sessions du DMTAC gérées par un pharmacien et ceux qui ne l'ont pas fait, et identifier les facteurs de risque associés à la non-complétion du DMTAC.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Non précisé dans l'article</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Non aléatoire</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Patients atteints de diabète de type 2, âgés de 18 ans ou plus, ayant assisté à au moins une session DMTAC entre janvier 2018 et décembre 2020.</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Patients sans mesures de niveau HbA1c pendant la période d'étude, mesures HbA1c prises moins de trois mois avant la première session DMTAC, mesures HbA1c prises plus d'un an après la dernière session DMTAC, ou ayant des dossiers incomplets.</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aucun insu</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Le paramètre principal évalué dans cette étude est le changement des résultats cliniques, spécifiquement les niveaux de contrôle glycémique tels que les lectures les plus récentes de l'HbA1c et de la glycémie à jeun (FBS).</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Les résultats montrent une réduction statistiquement significative des niveaux de FBS dans le groupe complet par rapport au groupe incomplet (P=0.024). Cependant, il n'y a pas de différence statistiquement significative dans les niveaux d'HbA1c entre les groupes complet et incomplet à la fin de l'étude.</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Non précisé dans l'article</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Non précisé dans l'article</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Dans cinq centres du Ministère de la Santé en Selangor, Malaisie</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Pharmaciens</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Non précisé dans l'article</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Les limites de l'étude identifiées par les auteurs incluent la collecte de données rétrospectives qui est sujette à des variations dans l'exhaustivité et la qualité des données par rapport aux protocoles de collecte de données rigoureux des études prospectives, l'absence de protocole centralisé pour la mesure de l'HbA1c et du FBS entraînant des variations dans les stratégies de mesure du contrôle de la glycémie dans chaque établissement, et l'influence potentielle des compétences des individus supervisant le programme sur l'efficacité de l'intervention.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
